--- a/Input/Pacific_Cross/userType.xlsx
+++ b/Input/Pacific_Cross/userType.xlsx
@@ -20,32 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">userType</t>
+  </si>
   <si>
     <t xml:space="preserve">benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">userType</t>
+    <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">General Benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
+    <t xml:space="preserve">Pro</t>
   </si>
   <si>
     <t xml:space="preserve">Claims Handling</t>
   </si>
   <si>
-    <t xml:space="preserve">Pro</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-existing Condition Cover</t>
   </si>
   <si>
@@ -73,22 +73,22 @@
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient_benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Consultations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Specialists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Medicines</t>
+    <t xml:space="preserve">Out-patient benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Medicines</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Scans_Diagnostic_Tests</t>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">Dental Waiting Period</t>
   </si>
   <si>
+    <t xml:space="preserve">tyoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Additional Benefits</t>
   </si>
   <si>
@@ -146,12 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mobile Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthy Connect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
   </si>
 </sst>
 </file>
@@ -161,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -184,37 +181,57 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -222,6 +239,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -248,25 +272,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,327 +386,319 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
